--- a/data/income_statement/3digits/total/812_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/812_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>812-Cleaning activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>812-Cleaning activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5563782.61397</v>
+        <v>5563782.613969999</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>6804944.56578</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8297682.75401</v>
+        <v>8298031.8884</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10246295.66868</v>
+        <v>10247719.88056</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12265128.98529</v>
+        <v>12293626.27839</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>14204100.13659</v>
+        <v>14447681.901</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17020986.30287</v>
+        <v>17345306.66761</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22290615.2197</v>
+        <v>22406530.73052</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>25416286.2929</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>16981108.451</v>
+        <v>17093859.70731</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16297779.64462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16481002.53868</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18196893.265</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>5410710.47713</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6624013.84037</v>
+        <v>6624013.840369998</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8026037.29782</v>
+        <v>8026386.43221</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9945888.389220001</v>
+        <v>9946272.413449999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11921459.19994</v>
+        <v>11949595.53637</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>13885932.85325</v>
+        <v>14103698.38763</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16571045.04299</v>
+        <v>16875266.63154</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21632425.29157</v>
+        <v>21744014.41963</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>24627518.67649</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16550741.82328</v>
+        <v>16661236.21206</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>15827745.20974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16010612.57084</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>17506017.658</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>30349.22808</v>
@@ -1037,19 +953,19 @@
         <v>75926.97877</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>90690.51761000001</v>
+        <v>91302.85072</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>84097.23609999999</v>
+        <v>84261.21181000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>61579.35686</v>
+        <v>86903.11241000002</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>102005.61943</v>
+        <v>109152.03141</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>148000.98356</v>
+        <v>148816.59604</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>214880.35279</v>
@@ -1058,13 +974,18 @@
         <v>38004.02698</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>133749.89616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>132262.63584</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>189203.716</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>122722.90876</v>
@@ -1076,34 +997,39 @@
         <v>195718.47742</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>209716.76185</v>
+        <v>210144.61639</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>259572.54925</v>
+        <v>259769.53021</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>256587.92648</v>
+        <v>257080.40096</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>347935.6404500001</v>
+        <v>360888.00466</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>510188.9445699999</v>
+        <v>513699.71485</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>573887.26362</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>392362.60074</v>
+        <v>394619.46827</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>336284.53872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>338127.332</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>501671.891</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>13927.12638</v>
@@ -1118,31 +1044,36 @@
         <v>12683.09743</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>18258.75683</v>
+        <v>18269.11435</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24301.0896</v>
+        <v>24305.92983</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>28682.42818</v>
+        <v>28788.24108</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>69845.39840000001</v>
+        <v>69845.76589999998</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>95328.76445999999</v>
+        <v>95328.76445999998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>122011.79018</v>
+        <v>122033.08268</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>180460.80331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>181018.16856</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>257923.655</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>11116.22167</v>
@@ -1157,31 +1088,36 @@
         <v>10945.54517</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16476.38826</v>
+        <v>16476.95532</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>22184.44655</v>
+        <v>22186.30415</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>27243.02711</v>
+        <v>27341.11222</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>62321.40385</v>
+        <v>62321.77135</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>78837.7496</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>111336.65253</v>
+        <v>111357.64503</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>175816.7799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>175983.30396</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>203853.63</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1476.56412</v>
@@ -1196,13 +1132,13 @@
         <v>1502.73149</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1405.47669</v>
+        <v>1415.26715</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>687.76492</v>
+        <v>690.74755</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>885.3519100000001</v>
+        <v>891.81462</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>3909.10614</v>
@@ -1211,16 +1147,21 @@
         <v>8478.44202</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3833.46192</v>
+        <v>3833.76192</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3173.4991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3564.34029</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4367.52</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1334.34059</v>
@@ -1235,13 +1176,13 @@
         <v>234.82077</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>376.89188</v>
+        <v>376.8918800000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1428.87813</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>554.0491599999999</v>
+        <v>555.31424</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>3614.88841</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>1470.52431</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>49702.505</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5549855.48759</v>
+        <v>5549855.487590001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>6787820.75517</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8280653.45686</v>
+        <v>8281002.59125</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10233612.57125</v>
+        <v>10235036.78313</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12246870.22846</v>
+        <v>12275357.16404</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14179799.04699</v>
+        <v>14423375.97117</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>16992303.87469</v>
+        <v>17316518.42653</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>22220769.8213</v>
+        <v>22336684.96462</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>25320957.52844</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>16859096.66082</v>
+        <v>16971826.62463</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16117318.84131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16299984.37012</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17938969.61</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>4842967.375809999</v>
@@ -1307,40 +1258,45 @@
         <v>5993594.91804</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7359761.35886</v>
+        <v>7360089.01342</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9178834.254400002</v>
+        <v>9179772.933599999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>11078086.94909</v>
+        <v>11105383.10603</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12864282.0649</v>
+        <v>13097671.5033</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>15477089.36999</v>
+        <v>15781538.70679</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>20382783.57467</v>
+        <v>20481329.43388</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>23274994.97633</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>15234222.73252</v>
+        <v>15339035.50227</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14362416.57423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14527509.46549</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>15427302.296</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>87838.70306</v>
+        <v>87838.70305999999</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>109663.40389</v>
@@ -1349,73 +1305,83 @@
         <v>145222.93483</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>137861.69519</v>
+        <v>137862.29519</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>151220.37137</v>
+        <v>151272.47515</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>268192.51742</v>
+        <v>268385.35742</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>321344.74049</v>
+        <v>325616.1207199999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>449598.2407199999</v>
+        <v>450096.59429</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>463076.50947</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>439074.62387</v>
+        <v>439093.89491</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>501643.97662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>511152.22664</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>664910.863</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>313493.14814</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>380333.5016799999</v>
+        <v>380333.50168</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>429385.38858</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>569839.88613</v>
+        <v>569842.0744200001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>827952.9269200001</v>
+        <v>828644.2004600001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1184744.64688</v>
+        <v>1208764.29175</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1989728.17125</v>
+        <v>2086057.46369</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2400292.5736</v>
+        <v>2401473.929</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2758391.43149</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1774402.31228</v>
+        <v>1788679.18563</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2015885.72912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2071725.74324</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2766135.401</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>4431094.06151</v>
@@ -1424,37 +1390,42 @@
         <v>5487326.058569999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6764826.64757</v>
+        <v>6765154.302129999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>8457221.886179999</v>
+        <v>8458157.77709</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>10051324.11119</v>
+        <v>10077876.89081</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11375985.65932</v>
+        <v>11585162.61285</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>13136178.77501</v>
+        <v>13340000.21142</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>17476743.78847</v>
+        <v>17573601.47196</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>19974400.42414</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12931441.27269</v>
+        <v>13021894.68021</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11785480.86064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11884595.51522</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11879979.013</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10541.4631</v>
@@ -1475,25 +1446,30 @@
         <v>35359.24128</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>29837.68324</v>
+        <v>29864.91096</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>56148.97188</v>
+        <v>56157.43863</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>79126.61123000001</v>
+        <v>79126.61122999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>89304.52368000001</v>
+        <v>89367.74152000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>59406.00785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>60035.98039</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>116277.019</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>706888.1117799999</v>
@@ -1502,37 +1478,42 @@
         <v>794225.83713</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>920892.098</v>
+        <v>920913.57783</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1054778.31685</v>
+        <v>1055263.84953</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1168783.27937</v>
+        <v>1169974.05801</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1315516.98209</v>
+        <v>1325704.46787</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1515214.5047</v>
+        <v>1534979.71974</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1837986.24663</v>
+        <v>1855355.53074</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2045962.55211</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1624873.9283</v>
+        <v>1632791.12236</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1754902.26708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1772474.90463</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2511667.314</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>566396.72457</v>
@@ -1541,37 +1522,42 @@
         <v>623382.78315</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>734759.10453</v>
+        <v>734844.1221199998</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>835894.7058699999</v>
+        <v>836332.2590900002</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>921743.5914400001</v>
+        <v>924194.27087</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1100455.61586</v>
+        <v>1116205.44401</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1266970.30701</v>
+        <v>1287141.85182</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1566953.71642</v>
+        <v>1581718.60254</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1763541.29836</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1419492.94882</v>
+        <v>1432691.25032</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1418750.17825</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1440696.20277</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2151832.011</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1935.31618</v>
@@ -1606,17 +1592,22 @@
       <c r="M21" s="48" t="n">
         <v>179.76688</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>649.021</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>66183.22256000001</v>
+        <v>66183.22255999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>70235.67718000001</v>
+        <v>70235.67718</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>59381.05102</v>
@@ -1625,31 +1616,36 @@
         <v>73331.49018000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>73439.9179</v>
+        <v>73613.9624</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>93862.40406</v>
+        <v>94393.63431000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>117576.60788</v>
+        <v>118780.57268</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>123818.39795</v>
+        <v>123819.25468</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>148297.43732</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>161840.68529</v>
+        <v>162229.91802</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>178690.70613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>180223.86809</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>194121.811</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>498278.18583</v>
@@ -1658,37 +1654,42 @@
         <v>550387.62749</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>672889.6218199999</v>
+        <v>672974.6394099999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>759591.44505</v>
+        <v>760028.99827</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>846086.63424</v>
+        <v>848363.26917</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1002220.89508</v>
+        <v>1017439.49298</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1143916.6363</v>
+        <v>1162884.21631</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1442439.27661</v>
+        <v>1457203.306</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1614681.1896</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1257418.69523</v>
+        <v>1270227.764</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1239879.70524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1260292.5678</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1957061.179</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>140491.38721</v>
@@ -1697,76 +1698,86 @@
         <v>170843.05398</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>186132.99347</v>
+        <v>186069.45571</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>218883.61098</v>
+        <v>218931.59044</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>247039.68793</v>
+        <v>245779.78714</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>215061.36623</v>
+        <v>209499.02386</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>248244.19769</v>
+        <v>247837.86792</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>271032.5302100001</v>
+        <v>273636.9282</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>282421.25375</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>205380.97948</v>
+        <v>200099.87204</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>336152.08883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>331778.70186</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>359835.303</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>75992.54797</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>92863.78167000001</v>
+        <v>92863.78167</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>100087.39831</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>100816.48493</v>
+        <v>100872.65817</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>152939.05467</v>
+        <v>153318.18373</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>183428.83387</v>
+        <v>184016.6323</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>172088.79545</v>
+        <v>177224.56716</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>183403.88031</v>
+        <v>183820.60716</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>221593.20268</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>320882.0037</v>
+        <v>320909.85163</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>330424.7173200001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>331151.92686</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>433856.149</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>12750.50644</v>
@@ -1778,7 +1789,7 @@
         <v>5559.6065</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5394.945209999999</v>
+        <v>5394.94521</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>6807.95433</v>
@@ -1787,10 +1798,10 @@
         <v>12274.85536</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>13661.85429</v>
+        <v>14051.69733</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>25295.69964</v>
+        <v>25320.1492</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>40258.79885</v>
@@ -1799,13 +1810,18 @@
         <v>16090.1788</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>14367.18332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>14517.56291</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>40676.142</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>12498.82864</v>
@@ -1823,28 +1839,33 @@
         <v>17350.4896</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>23382.78880999999</v>
+        <v>23382.78881</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>29524.18171</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>15007.45122</v>
+        <v>15235.00069</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>24413.89307</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>27045.86498000001</v>
+        <v>27045.86498</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>19478.32432</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>10741.715</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>9160.438980000001</v>
@@ -1859,31 +1880,36 @@
         <v>20997.64361</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>21268.83214</v>
+        <v>21273.80878</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>30746.56305</v>
+        <v>30770.22436</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>42485.23487</v>
+        <v>43556.06746</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>47414.69153</v>
+        <v>47445.99936</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>41872.88839</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>60638.34009999999</v>
+        <v>60673.39604</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>75650.33857000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>75882.2258</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>56994.592</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>63.85013</v>
@@ -1898,10 +1924,10 @@
         <v>840.75877</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>788.7570899999999</v>
+        <v>788.7570900000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>754.1469999999999</v>
+        <v>754.147</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>149.22972</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>825.59928</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>635.799</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>7617.60267</v>
@@ -1931,7 +1962,7 @@
         <v>12070.53323</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>9224.932790000001</v>
+        <v>9224.932789999999</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>1435.75092</v>
@@ -1943,10 +1974,10 @@
         <v>9932.47234</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>15903.0747</v>
+        <v>15937.70234</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4537.59778</v>
+        <v>4554.99285</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>6543.75919</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>12765.94588</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5144.556</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1426.71881</v>
@@ -1982,28 +2018,33 @@
         <v>1214.91997</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1261.46622</v>
+        <v>1268.2194</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5174.110729999999</v>
+        <v>5174.11073</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1768.85467</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4121.277480000001</v>
+        <v>4125.42399</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5078.620289999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5081.61852</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3556.961</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>8603.999100000001</v>
+        <v>8603.999099999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>22263.10957</v>
@@ -2012,16 +2053,16 @@
         <v>15833.55176</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>18933.7081</v>
+        <v>18989.88134</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>14506.54147</v>
+        <v>14867.12311</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>32429.91552</v>
+        <v>32904.9053</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>20315.63984</v>
+        <v>21833.6403</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>12053.33833</v>
@@ -2030,16 +2071,21 @@
         <v>29769.99898</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>86615.19412</v>
+        <v>86615.28948000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>58735.03623999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>58830.86059</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>200559.193</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1340.76569</v>
@@ -2063,7 +2109,7 @@
         <v>6.091909999999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>3832.64619</v>
+        <v>3832.646189999999</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>240.02861</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>6078.19655</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5407.161</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>265.25488</v>
@@ -2093,13 +2144,13 @@
         <v>114.02961</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3676.162170000001</v>
+        <v>3676.16217</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>290.141</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>3.04428</v>
+        <v>5.94376</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>50</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>22264.58263</v>
@@ -2129,37 +2185,42 @@
         <v>28165.41384</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>33695.96338</v>
+        <v>33695.96337999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>84564.45093000001</v>
+        <v>84578.02171000002</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>72391.86447</v>
+        <v>72481.01181</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>48778.97791</v>
+        <v>50891.79323</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>69867.13248</v>
+        <v>69983.15740000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>76529.75808000001</v>
+        <v>76529.75808</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>123347.00485</v>
+        <v>123335.55497</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>137445.47287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>137691.59301</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>110123.03</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>40296.37962</v>
+        <v>40296.37962000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>63981.74713</v>
@@ -2168,37 +2229,42 @@
         <v>79788.72644</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>42175.78516</v>
+        <v>42216.33584000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>96423.99479</v>
+        <v>96991.99693000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>73096.35295</v>
+        <v>73524.56997999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>57261.71654</v>
+        <v>58691.03037</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>59438.7143</v>
+        <v>59575.08220999999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>150716.32166</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>141550.47195</v>
+        <v>141626.70974</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>158906.0095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>159010.74084</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>230451.9</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>645.73005</v>
+        <v>645.7300499999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>2075.51149</v>
@@ -2216,25 +2282,30 @@
         <v>2575.62483</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1827.72223</v>
+        <v>1830.69708</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1994.07314</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2510.35498</v>
+        <v>2510.354980000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3455.937629999999</v>
+        <v>3456.02594</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5703.72223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5703.722229999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5099.5</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>14576.81171</v>
@@ -2246,16 +2317,16 @@
         <v>17295.71145</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8201.42541</v>
+        <v>8201.425410000002</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4855.947649999999</v>
+        <v>4855.94765</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>17681.49023</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10332.01916</v>
+        <v>10376.15472</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>4458.854740000001</v>
@@ -2264,16 +2335,21 @@
         <v>7361.28176</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>21242.68701</v>
+        <v>21318.83649</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>21798.2937</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>14795.331</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>81.80006</v>
@@ -2282,7 +2358,7 @@
         <v>90.38342999999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>269.88808</v>
+        <v>269.8880799999999</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>150.24432</v>
@@ -2294,7 +2370,7 @@
         <v>21.4015</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>68.84693000000001</v>
+        <v>70.30892999999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>469.34383</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>14575.31644</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>23.898</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>9858.116649999998</v>
@@ -2324,16 +2405,16 @@
         <v>40985.00519999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>13886.30029</v>
+        <v>13926.85097</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>37289.03475</v>
+        <v>37623.11581</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>26792.67018</v>
+        <v>27188.65442</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>24296.23639</v>
+        <v>25232.47124</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>14954.89354</v>
@@ -2345,13 +2426,18 @@
         <v>74465.19145</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>52888.13794</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>52989.92773999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>186584.34</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>126.78562</v>
@@ -2372,7 +2458,7 @@
         <v>236.5404</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>79.86434999999999</v>
+        <v>79.86435</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>5764.39673</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>10225.58408</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1415.76</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>133.09031</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>14874.04522</v>
@@ -2444,16 +2540,16 @@
         <v>18595.53335</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>51830.24763000001</v>
+        <v>52064.16870999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>25682.82688</v>
+        <v>25715.05967</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>20439.27737</v>
+        <v>20883.78394</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>31696.38573000001</v>
+        <v>31832.75364</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>115602.8794</v>
@@ -2462,16 +2558,21 @@
         <v>42119.03964</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>53714.95509999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>53717.89664</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22533.071</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>48326.86250000001</v>
+        <v>48326.8625</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>49703.07479</v>
@@ -2483,31 +2584,36 @@
         <v>90879.93669</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>85369.91929999999</v>
+        <v>85496.67344</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>98422.29209</v>
+        <v>106853.9769</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>157687.33553</v>
+        <v>158727.79017</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>191894.59644</v>
+        <v>193263.43868</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>186987.92227</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>249401.38644</v>
+        <v>249441.5838</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>257221.99358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>257546.68975</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>210303.115</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>40401.40635</v>
@@ -2516,43 +2622,48 @@
         <v>42474.92657</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>60598.81239</v>
+        <v>60598.81239000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>85873.05941</v>
+        <v>85873.05941000002</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>80678.68960999999</v>
+        <v>80805.44375000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>94319.17895</v>
+        <v>102697.11081</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>151510.13383</v>
+        <v>152543.09854</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>184437.04053</v>
+        <v>185805.7241</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>174534.71459</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>229779.90365</v>
+        <v>229820.10101</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>245855.59145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>246169.55727</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>196497.487</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>7925.456149999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7228.148220000001</v>
+        <v>7228.14822</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>5369.81547</v>
@@ -2561,16 +2672,16 @@
         <v>5006.877280000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4691.229689999999</v>
+        <v>4691.22969</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4103.113139999999</v>
+        <v>4156.86609</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6177.2017</v>
+        <v>6184.69163</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7457.55591</v>
+        <v>7457.71458</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>12453.20768</v>
@@ -2579,13 +2690,18 @@
         <v>19621.48279</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>11366.40213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>11377.13248</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>13805.628</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>127860.69306</v>
@@ -2594,37 +2710,42 @@
         <v>150022.01373</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>140463.03748</v>
+        <v>140399.49972</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>186644.37406</v>
+        <v>186707.97608</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>218184.82851</v>
+        <v>216609.3005</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>226971.55506</v>
+        <v>213137.10928</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>205383.94107</v>
+        <v>207643.61454</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>203103.09978</v>
+        <v>204619.01447</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>166310.2125</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>135311.12479</v>
+        <v>129941.43013</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>250448.80307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>246373.19813</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>352936.437</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>19567.81894</v>
@@ -2639,37 +2760,42 @@
         <v>44384.431</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>72329.00075000001</v>
+        <v>72391.72825</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>101612.01313</v>
+        <v>121342.10983</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>96056.54419</v>
+        <v>97735.40674000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>218767.35874</v>
+        <v>219497.20149</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>159161.37612</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>179557.29389</v>
+        <v>179627.32426</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>190421.42894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>190714.12691</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>246383.588</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>412.88072</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>474.1994100000001</v>
+        <v>474.19941</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>298.79169</v>
@@ -2681,13 +2807,13 @@
         <v>5004.265780000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1955.55315</v>
+        <v>2283.39371</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>6464.584859999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4111.870159999999</v>
+        <v>4124.07062</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1815.95505</v>
@@ -2696,13 +2822,18 @@
         <v>2304.77895</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1885.82763</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1892.98908</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1872.416</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>19154.93822</v>
@@ -2711,82 +2842,92 @@
         <v>41637.69136</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>30704.53444000001</v>
+        <v>30704.53444</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>43517.68122999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>67324.73497</v>
+        <v>67387.46247</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>99656.45997999999</v>
+        <v>119058.71612</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>89591.95933000001</v>
+        <v>91270.82187999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>214655.48858</v>
+        <v>215373.13087</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>157345.42107</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>177252.51494</v>
+        <v>177322.54531</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>188535.60131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>188821.13783</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>244511.172</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>27922.81989</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>49362.16030999999</v>
+        <v>49362.16031</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>227651.89646</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>53147.40838</v>
+        <v>53147.40837999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>66526.93212</v>
+        <v>67336.73851</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>98418.07591999999</v>
+        <v>102527.50327</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>91031.03034</v>
+        <v>92122.26593000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>274374.04319</v>
+        <v>275963.88088</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>136253.48402</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>215276.24111</v>
+        <v>216382.06936</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>205517.65128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>207222.10026</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>188483.943</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>580.8366600000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>366.4819</v>
+        <v>366.4818999999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>151.02481</v>
@@ -2795,13 +2936,13 @@
         <v>257.23037</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1043.35809</v>
+        <v>1057.01388</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>296.24915</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>904.6402599999999</v>
+        <v>914.9652600000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>181.80497</v>
@@ -2813,13 +2954,18 @@
         <v>539.5286</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1905.24126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1905.24176</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>51.456</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3598.38538</v>
@@ -2834,13 +2980,13 @@
         <v>1805.73507</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2009.90447</v>
+        <v>2333.94568</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6336.840159999999</v>
+        <v>6495.809959999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1774.75908</v>
+        <v>2252.95408</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>3297.23889</v>
@@ -2852,19 +2998,24 @@
         <v>9562.664429999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13870.89562</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13895.96971</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>37739.604</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>23743.59785</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>45736.36031999999</v>
+        <v>45736.36032</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>225764.01905</v>
@@ -2873,31 +3024,36 @@
         <v>51084.44294</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>63473.66956000001</v>
+        <v>63945.77894999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>91784.98660999999</v>
+        <v>95735.44416</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>88351.63099999999</v>
+        <v>88954.34658999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>270894.99933</v>
+        <v>272484.83702</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>133136.9156</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>205174.04808</v>
+        <v>206279.87633</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>189741.5144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>191420.88879</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>150692.883</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>119505.69211</v>
@@ -2906,37 +3062,42 @@
         <v>142771.74419</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-56185.53285</v>
+        <v>-56249.07061000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>177881.39668</v>
+        <v>177944.9987</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>223986.89714</v>
+        <v>221664.29024</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>230165.49227</v>
+        <v>231951.71584</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>210409.45492</v>
+        <v>213256.75535</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>147496.41533</v>
+        <v>148152.33508</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>189218.1046</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>99592.17757000001</v>
+        <v>93186.68503000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>235352.58073</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>229865.22478</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>410836.082</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>29942.0361</v>
@@ -2948,70 +3109,78 @@
         <v>39607.4559</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>47713.12163999999</v>
+        <v>47714.81355</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>63654.38264999999</v>
+        <v>63705.19347000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>69424.09839999999</v>
+        <v>69526.82024000002</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>70665.03486</v>
+        <v>71769.27954</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>89312.45188000001</v>
+        <v>89495.31327</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>92439.82302</v>
+        <v>92439.82302000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>96797.79239999999</v>
+        <v>97510.05109000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>137862.90042</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>138485.06417</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>145719.828</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>89563.65601000001</v>
+        <v>89563.65600999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>108151.29322</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-95792.98875</v>
+        <v>-95856.52651000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>130168.27504</v>
+        <v>130230.18515</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>160332.51449</v>
+        <v>157959.09677</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>160741.39387</v>
+        <v>162424.8956</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>139744.42006</v>
+        <v>141487.47581</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>58183.96345</v>
+        <v>58657.02181000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>96778.28158</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2794.385170000002</v>
+        <v>-4323.366059999991</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>97489.68031</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>91380.16060999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>265116.254</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3131</v>
@@ -3038,34 +3210,37 @@
         <v>3392</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4015</v>
+        <v>4020</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4610</v>
+        <v>4624</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5010</v>
+        <v>5038</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5236</v>
+        <v>5310</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5486</v>
+        <v>5505</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>5714</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5350</v>
+        <v>5489</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4931</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5162</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>